--- a/output_国語_2024_D.xlsx
+++ b/output_国語_2024_D.xlsx
@@ -441,64 +441,64 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>4月</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>5月</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>6月</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>7月</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>8月</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>9月</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>10月</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>11月</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>12月</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>1月</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>2月</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>3月</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>4月</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>5月</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>6月</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>7月</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>8月</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>9月</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10月</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>11月</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>12月</t>
-        </is>
-      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>年間合計</t>
@@ -511,7 +511,7 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>年</t>
+          <t>年度</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E4" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N4" t="n">
         <v>160</v>
@@ -704,16 +704,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E5" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N5" t="n">
         <v>250</v>

--- a/output_国語_2024_D.xlsx
+++ b/output_国語_2024_D.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -563,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -582,17 +582,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ほち</t>
+          <t>たま</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N3" t="n">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -641,14 +641,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>たま</t>
+          <t>合計</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
         <v>45</v>
@@ -681,7 +681,7 @@
         <v>55</v>
       </c>
       <c r="N4" t="n">
-        <v>160</v>
+        <v>275</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -692,65 +692,6 @@
         <v>2024</v>
       </c>
       <c r="Q4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>合計</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>115</v>
-      </c>
-      <c r="C5" t="n">
-        <v>35</v>
-      </c>
-      <c r="D5" t="n">
-        <v>45</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>55</v>
-      </c>
-      <c r="N5" t="n">
-        <v>250</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>国語</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>2024</v>
-      </c>
-      <c r="Q5" t="inlineStr">
         <is>
           <t>D</t>
         </is>
